--- a/国赛训练/2019培训3/code/DivData.xlsx
+++ b/国赛训练/2019培训3/code/DivData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\MCM-2019-College\国赛训练\2019培训3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\MCM-2019-College\国赛训练\2019培训3\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C5EF73-0111-404B-B827-A401CF56889A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC75B66B-38BF-4810-A16D-3B8492DCC71E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{98FDAF19-227B-4A85-A300-1F264B583B8D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21816" windowHeight="14016" xr2:uid="{98FDAF19-227B-4A85-A300-1F264B583B8D}"/>
   </bookViews>
   <sheets>
     <sheet name="已安排" sheetId="1" r:id="rId1"/>
@@ -478,19 +478,19 @@
   <dimension ref="A1:I534"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="33.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +514,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -537,7 +537,7 @@
         <v>39648</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -560,7 +560,7 @@
         <v>39668</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -583,7 +583,7 @@
         <v>39660</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -606,7 +606,7 @@
         <v>39664</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -629,7 +629,7 @@
         <v>39665</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -652,7 +652,7 @@
         <v>39671</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -675,7 +675,7 @@
         <v>39662</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -698,7 +698,7 @@
         <v>39666</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -721,7 +721,7 @@
         <v>39661</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -744,7 +744,7 @@
         <v>39659</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -767,7 +767,7 @@
         <v>39668</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -790,7 +790,7 @@
         <v>39662</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -813,7 +813,7 @@
         <v>39662</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -836,7 +836,7 @@
         <v>39664</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -859,7 +859,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -882,7 +882,7 @@
         <v>39666</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -905,7 +905,7 @@
         <v>39672</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -928,7 +928,7 @@
         <v>39659</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -951,7 +951,7 @@
         <v>39665</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -974,7 +974,7 @@
         <v>39662</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -997,7 +997,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>39666</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>39659</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>39659</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>39670</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>39667</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>39663</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>39651</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>39670</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>39671</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>39670</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>39663</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>39668</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>39670</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>39668</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>39668</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>39657</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>39667</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>39668</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>39670</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>39668</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>39668</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>39670</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>39655</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>39666</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>39668</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>39671</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>39654</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>39667</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>39668</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>39673</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>39674</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>39668</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>39668</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>39671</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>39671</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>39667</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>39654</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>39668</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>39676</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>39673</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2101,7 +2101,7 @@
         <v>39668</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>39667</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>39667</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>39658</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>39657</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>39674</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>39676</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>39666</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>39658</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>39656</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>39666</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>39676</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>39657</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>39676</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>39670</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>39677</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>39676</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>39661</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>39670</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>39659</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>39677</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>39678</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>39673</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>39680</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>39676</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>39677</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>39679</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>39675</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>39675</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>39679</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>39682</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>39675</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>39677</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>39679</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>39674</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>39677</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>39674</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>39682</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>39675</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>39680</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>39676</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>39678</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>39674</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>39674</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>39677</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>39662</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>39679</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>39674</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>39675</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>39673</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>39682</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>39665</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>39676</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>39680</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>39685</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>39666</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>39679</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>39665</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>39685</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>39680</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>39684</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>39676</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>39679</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>39684</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>39680</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>39682</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>39676</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -3895,7 +3895,7 @@
         <v>39684</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>39674</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>39682</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>39675</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>39680</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>39673</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>39671</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>39676</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>39666</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>39667</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>39678</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>39684</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>39676</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>39679</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>39675</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>39688</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>39685</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>39687</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>39670</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>39689</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>39682</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4470,7 +4470,7 @@
         <v>39684</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>39682</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>39669</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>39668</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>39689</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>39685</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>39687</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>39682</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>39688</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>39684</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>39686</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>39681</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -4907,7 +4907,7 @@
         <v>39686</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -4930,7 +4930,7 @@
         <v>39689</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>39690</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>39688</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>39684</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>39687</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>39673</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>39681</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>39689</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>39684</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>39681</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>39680</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -5229,7 +5229,7 @@
         <v>39685</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>39692</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>39681</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -5298,7 +5298,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>39680</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>39689</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>39680</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -5390,7 +5390,7 @@
         <v>39684</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>39690</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>39675</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>39692</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>39690</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>39690</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>39692</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>39693</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>39687</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>39688</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>39689</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>39691</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>39690</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>39691</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>39687</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>39690</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>39676</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>39688</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>39690</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>39672</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>39693</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>39674</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>39698</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>39697</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>39690</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>39690</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>39689</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>39694</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>39697</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -6126,7 +6126,7 @@
         <v>39688</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>39695</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>39689</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>39687</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>39690</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>39694</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>39680</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>39678</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>39690</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>39688</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>39695</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>39692</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>39689</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>39698</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -6517,7 +6517,7 @@
         <v>39688</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>39690</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>39690</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>39689</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>39690</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>39688</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>39688</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>39698</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>39695</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>39697</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>39698</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -6885,7 +6885,7 @@
         <v>39697</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>39697</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>39697</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>39684</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>39698</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -7023,7 +7023,7 @@
         <v>39697</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>39697</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>39697</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>39698</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>39698</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>39697</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>39695</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>39699</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>39698</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>39702</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>39699</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>39684</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>39700</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>39698</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>39697</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>39695</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>39695</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>39688</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -7552,7 +7552,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>39700</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>39685</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>39697</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>39683</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>39697</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>39702</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>39695</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>39687</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>39698</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>39696</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>39697</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -7897,7 +7897,7 @@
         <v>39695</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>39700</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>39697</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>39702</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>39692</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>39686</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v>39687</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>39688</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>39695</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -8219,7 +8219,7 @@
         <v>39702</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>39694</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>39702</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>39692</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>39694</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>39702</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>39694</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>39697</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -8403,7 +8403,7 @@
         <v>39697</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -8426,7 +8426,7 @@
         <v>39700</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>39699</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>39699</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>39700</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>39702</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -8550,7 +8550,7 @@
       <c r="F351" s="4"/>
       <c r="G351" s="4"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="4"/>
@@ -8559,11 +8559,14 @@
       <c r="F431" s="4"/>
       <c r="G431" s="4"/>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B534" xr:uid="{786DC327-303F-4DED-ABA8-C8421C2BF598}"/>
+  <sortState ref="A2:G534">
+    <sortCondition ref="C1"/>
+  </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8578,15 +8581,15 @@
       <selection sqref="A1:G79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -8609,7 +8612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -8632,7 +8635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -8655,7 +8658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -8678,7 +8681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -8701,7 +8704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -8724,7 +8727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -8747,7 +8750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -8770,7 +8773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -8793,7 +8796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -8816,7 +8819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -8839,7 +8842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -8862,7 +8865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -8885,7 +8888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -8908,7 +8911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -8931,7 +8934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -8954,7 +8957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -8977,7 +8980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -9000,7 +9003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -9023,7 +9026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -9046,7 +9049,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -9069,7 +9072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -9092,7 +9095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -9115,7 +9118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -9138,7 +9141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -9161,7 +9164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -9184,7 +9187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -9207,7 +9210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -9230,7 +9233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -9253,7 +9256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -9276,7 +9279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -9299,7 +9302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -9322,7 +9325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -9345,7 +9348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -9368,7 +9371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -9391,7 +9394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -9414,7 +9417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -9437,7 +9440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -9460,7 +9463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -9483,7 +9486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -9506,7 +9509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -9529,7 +9532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -9552,7 +9555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -9575,7 +9578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -9598,7 +9601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -9621,7 +9624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -9644,7 +9647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -9667,7 +9670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -9690,7 +9693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -9713,7 +9716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -9736,7 +9739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -9759,7 +9762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -9782,7 +9785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -9805,7 +9808,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -9828,7 +9831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -9851,7 +9854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -9874,7 +9877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -9897,7 +9900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -9920,7 +9923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -9943,7 +9946,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -9966,7 +9969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -9989,7 +9992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -10012,7 +10015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -10035,7 +10038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -10058,7 +10061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -10081,7 +10084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -10104,7 +10107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -10127,7 +10130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -10150,7 +10153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -10173,7 +10176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -10196,7 +10199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -10219,7 +10222,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -10242,7 +10245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -10265,7 +10268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -10288,7 +10291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -10311,7 +10314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -10334,7 +10337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -10357,7 +10360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -10380,7 +10383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -10418,15 +10421,15 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="2.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="2.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -10449,7 +10452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -10472,7 +10475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -10495,7 +10498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -10518,7 +10521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -10541,7 +10544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -10564,7 +10567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -10587,7 +10590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -10610,7 +10613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -10633,7 +10636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -10656,7 +10659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -10679,7 +10682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -10702,7 +10705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -10725,7 +10728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -10748,7 +10751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -10771,7 +10774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -10794,7 +10797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -10817,7 +10820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -10840,7 +10843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -10863,7 +10866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -10886,7 +10889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -10909,7 +10912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -10932,7 +10935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -10955,7 +10958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -10978,7 +10981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -11001,7 +11004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -11024,7 +11027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -11047,7 +11050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -11070,7 +11073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -11093,7 +11096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -11116,7 +11119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -11139,7 +11142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -11162,7 +11165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -11185,7 +11188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -11208,7 +11211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -11231,7 +11234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -11254,7 +11257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -11277,7 +11280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -11300,7 +11303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -11323,7 +11326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -11346,7 +11349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -11369,7 +11372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -11392,7 +11395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -11415,7 +11418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -11438,7 +11441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -11461,7 +11464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -11484,7 +11487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -11507,7 +11510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -11530,7 +11533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -11553,7 +11556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -11576,7 +11579,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -11599,7 +11602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -11622,7 +11625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -11645,7 +11648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -11668,7 +11671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -11691,7 +11694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -11714,7 +11717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -11737,7 +11740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -11760,7 +11763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -11783,7 +11786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -11806,7 +11809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -11829,7 +11832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -11852,7 +11855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -11875,7 +11878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -11898,7 +11901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -11921,7 +11924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -11944,7 +11947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -11967,7 +11970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -11990,7 +11993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -12013,7 +12016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -12036,7 +12039,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -12059,7 +12062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -12082,7 +12085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -12105,7 +12108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -12128,7 +12131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -12151,7 +12154,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -12174,7 +12177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -12197,7 +12200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -12220,7 +12223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -12243,7 +12246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -12266,7 +12269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -12289,7 +12292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -12312,7 +12315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -12335,7 +12338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -12358,7 +12361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -12381,7 +12384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -12404,7 +12407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -12427,7 +12430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -12450,7 +12453,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -12473,7 +12476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -12496,7 +12499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -12519,7 +12522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -12542,7 +12545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -12565,7 +12568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -12588,7 +12591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -12611,7 +12614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -12634,7 +12637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -12657,7 +12660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -12680,7 +12683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -12703,7 +12706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -12726,7 +12729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -12749,7 +12752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>102</v>
       </c>
